--- a/raw/Inscription.xlsx
+++ b/raw/Inscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="233">
   <si>
     <t>CSP parents (code)</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Profil étudiant (lib.)</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>UPS D2E</t>
-  </si>
-  <si>
     <t>2E</t>
   </si>
   <si>
@@ -694,12 +688,6 @@
   </si>
   <si>
     <t>Chomeur</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Demi Droit</t>
   </si>
   <si>
     <t>Normal</t>
@@ -1121,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C62"/>
   <cols>
     <col min="1" max="1" width="20.5347986666667" customWidth="1"/>
     <col min="2" max="2" width="10.7163133333333" customWidth="1"/>
@@ -1167,15 +1155,15 @@
         <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1399,15 +1387,15 @@
         <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1567,23 +1555,23 @@
         <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B58" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -1610,15 +1598,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="B62" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="62" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1637,58 +1617,58 @@
     <row r="1" s="1" customFormat="1" ht="14.3991" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
@@ -1710,66 +1690,66 @@
     <row r="1" s="1" customFormat="1" ht="14.9324" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
@@ -1791,58 +1771,58 @@
     <row r="1" s="1" customFormat="1" ht="4.2664" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="11.1993" customHeight="1">
@@ -1858,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <cols>
     <col min="1" max="1" width="36.0801" customWidth="1"/>
     <col min="2" max="2" width="10.7163133333333" customWidth="1"/>
@@ -1869,85 +1849,77 @@
     <row r="1" s="1" customFormat="1" ht="86.3946" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/raw/Inscription.xlsx
+++ b/raw/Inscription.xlsx
@@ -829,6 +829,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="25.9535986666667" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
@@ -1110,6 +1113,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.5347986666667" customWidth="1"/>
     <col min="2" max="2" width="10.7163133333333" customWidth="1"/>
@@ -1608,6 +1614,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="29.5205" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
@@ -1681,6 +1690,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.2495986666667" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
@@ -1762,6 +1774,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="30.6613" customWidth="1"/>
     <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
@@ -1839,6 +1854,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView rightToLeft="0" workbookViewId="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="36.0801" customWidth="1"/>
     <col min="2" max="2" width="10.7163133333333" customWidth="1"/>

--- a/raw/Inscription.xlsx
+++ b/raw/Inscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="235">
   <si>
     <t>CSP parents (code)</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t>Chomeur</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Demi Droit</t>
   </si>
   <si>
     <t>Normal</t>
@@ -1853,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0"/>
   </sheetViews>
@@ -1899,15 +1905,15 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>227</v>
@@ -1931,13 +1937,21 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B11" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="C11" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
